--- a/consolidated_nsduh_data_1.xlsx
+++ b/consolidated_nsduh_data_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T7Shield/pdf-table-parser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{50618923-AA58-2E41-8BD9-CF95B7E3B4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{550C2AD2-DDD4-CA4A-BE3D-1925002C7E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="940" windowWidth="27640" windowHeight="15520" xr2:uid="{A56482AC-E34B-2644-ACE1-17A98E793E8A}"/>
+    <workbookView xWindow="120" yWindow="8340" windowWidth="27640" windowHeight="15520" xr2:uid="{A56482AC-E34B-2644-ACE1-17A98E793E8A}"/>
   </bookViews>
   <sheets>
     <sheet name="consolidated_nsduh_data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1872" uniqueCount="407">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="3522" uniqueCount="751">
   <si>
     <t>Question_Code</t>
   </si>
@@ -1300,6 +1300,1086 @@
   </si>
   <si>
     <t>1-52</t>
+  </si>
+  <si>
+    <t>WRKLASTYR2</t>
+  </si>
+  <si>
+    <t>WHAT YEAR LAST WORKED</t>
+  </si>
+  <si>
+    <t>(
+QD39A)</t>
+  </si>
+  <si>
+    <t>1984 - 2022</t>
+  </si>
+  <si>
+    <t>1983 or earlier</t>
+  </si>
+  <si>
+    <t>NEVER WORKED AT A JOB OR BUSINESS</t>
+  </si>
+  <si>
+    <t>WRKSICKMO</t>
+  </si>
+  <si>
+    <t># DAYS MISSED WORK FOR INJURY/ILLNESS PAST 30 DAYS</t>
+  </si>
+  <si>
+    <t>(
+QD40)</t>
+  </si>
+  <si>
+    <t>1 - 30</t>
+  </si>
+  <si>
+    <t>WRKSKIPMO</t>
+  </si>
+  <si>
+    <t># DAYS SKIPPED WORK PAST 30 DAYS</t>
+  </si>
+  <si>
+    <t>(
+QD41)</t>
+  </si>
+  <si>
+    <t>WRKDRGPOL</t>
+  </si>
+  <si>
+    <t>WORKPLACE HAVE WRITTEN POLICY DRUG/ALCOHOL USE</t>
+  </si>
+  <si>
+    <t>(
+QD43)</t>
+  </si>
+  <si>
+    <t>WRKDRGALB</t>
+  </si>
+  <si>
+    <t>DID POLICY COVER ALCOHOL, DRUGS, OR  BOTH</t>
+  </si>
+  <si>
+    <t>(
+QD44)</t>
+  </si>
+  <si>
+    <t>Only alcohol</t>
+  </si>
+  <si>
+    <t>Only drugs</t>
+  </si>
+  <si>
+    <t>Both alcohol and drugs</t>
+  </si>
+  <si>
+    <t>WRKDRGEDU</t>
+  </si>
+  <si>
+    <t>AT WORK, GIVEN EDUCATION ON DRUGS/ALC</t>
+  </si>
+  <si>
+    <t>(
+QD45)</t>
+  </si>
+  <si>
+    <t>WRKDRGHLP</t>
+  </si>
+  <si>
+    <t>ANY ASSISTANCE PROGRAM OFFERED THROUGH WRK</t>
+  </si>
+  <si>
+    <t>(
+QD46)</t>
+  </si>
+  <si>
+    <t>WRKTSTALC</t>
+  </si>
+  <si>
+    <t>WORKPLACE TESTS FOR ALCOHOL USAGE</t>
+  </si>
+  <si>
+    <t>(
+QD47)</t>
+  </si>
+  <si>
+    <t>WRKTSTDRG</t>
+  </si>
+  <si>
+    <t>WORKPLACE TESTS FOR DRUG USAGE</t>
+  </si>
+  <si>
+    <t>(
+QD48)</t>
+  </si>
+  <si>
+    <t>WRKTSTHIR</t>
+  </si>
+  <si>
+    <t>TEST FOR DRUG/ALC AS HIRING PROCESS</t>
+  </si>
+  <si>
+    <t>(
+QD49)</t>
+  </si>
+  <si>
+    <t>WRKTSTRDM</t>
+  </si>
+  <si>
+    <t>TEST ON RANDOM BASIS</t>
+  </si>
+  <si>
+    <t>(
+QD50)</t>
+  </si>
+  <si>
+    <t>WRKTST1ST</t>
+  </si>
+  <si>
+    <t>WHAT HAPPENS FIRST TIME CAUGHT</t>
+  </si>
+  <si>
+    <t>(
+QD51)</t>
+  </si>
+  <si>
+    <t>Handled on indiv basis/policy does not spec what</t>
+  </si>
+  <si>
+    <t>Employee is fired</t>
+  </si>
+  <si>
+    <t>Employee is referred for treatment or counseling</t>
+  </si>
+  <si>
+    <t>Nothing happens</t>
+  </si>
+  <si>
+    <t>Something else happens</t>
+  </si>
+  <si>
+    <t>WRKOKPREH</t>
+  </si>
+  <si>
+    <t>WOULD YOU WORK FOR EMP DOES DRUG TEST PRE-HIRE</t>
+  </si>
+  <si>
+    <t>(
+QD52)</t>
+  </si>
+  <si>
+    <t>More likely</t>
+  </si>
+  <si>
+    <t>Less likely</t>
+  </si>
+  <si>
+    <t>Would it make no difference to you</t>
+  </si>
+  <si>
+    <t>WRKOKRAND</t>
+  </si>
+  <si>
+    <t>WOULD YOU WORK FOR EMP DOES DRUG/ALC TEST RANDOMLY</t>
+  </si>
+  <si>
+    <t>(
+QD53)</t>
+  </si>
+  <si>
+    <t>Would make no difference</t>
+  </si>
+  <si>
+    <t>IRWRKSTAT</t>
+  </si>
+  <si>
+    <t>EMPLOYMENT STATUS - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>(
+WRKSTATWK2)</t>
+  </si>
+  <si>
+    <t>Employed full time</t>
+  </si>
+  <si>
+    <t>Employed part time</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Other (incl. not in labor force)</t>
+  </si>
+  <si>
+    <t>12-14 year olds</t>
+  </si>
+  <si>
+    <t>IIWRKSTAT</t>
+  </si>
+  <si>
+    <t>EMPLOYMENT STATUS - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>Employment status from questionnaire</t>
+  </si>
+  <si>
+    <t>Employment statistically imputed</t>
+  </si>
+  <si>
+    <t>12-14 years old</t>
+  </si>
+  <si>
+    <t>II2WRKSTAT</t>
+  </si>
+  <si>
+    <t>EMPLOYMENT STATUS - DETAILED IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>Emp. statistically imputed (unrestricted)</t>
+  </si>
+  <si>
+    <t>Emp. stat. imp. (restr. to full-time or part-time)</t>
+  </si>
+  <si>
+    <t>IRWRKSTAT18</t>
+  </si>
+  <si>
+    <t>EMPLOYMENT STATUS 18+ - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>(
+AGE3, IRWRKSTAT)</t>
+  </si>
+  <si>
+    <t>12-17 year olds</t>
+  </si>
+  <si>
+    <t>IIWRKSTAT18</t>
+  </si>
+  <si>
+    <t>EMPLOYMENT STATUS 18+ - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>(
+AGE3, IIWRKSTAT)</t>
+  </si>
+  <si>
+    <t>12-17 years old</t>
+  </si>
+  <si>
+    <t>II2WRKST18</t>
+  </si>
+  <si>
+    <t>EMPLOYMENT STATUS 18+ - DETAILED IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>(
+AGE3, II2WRKSTAT)</t>
+  </si>
+  <si>
+    <t>EDFAM18</t>
+  </si>
+  <si>
+    <t>RC-EDITED INDICATOR: FAMILY IN HH 18 OR OLDER</t>
+  </si>
+  <si>
+    <t>R has other family members &gt;= 18</t>
+  </si>
+  <si>
+    <t>R does not have other family members &gt;= 18</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>IMOTHER</t>
+  </si>
+  <si>
+    <t>RC-MOTHER IN HH</t>
+  </si>
+  <si>
+    <t>(FRELAT10, FRELAT11, FRELAT12, FRELAT13, FRELAT14, FRELAT15, FRELAT16, FRELAT17, FRELAT18, FRELAT19, FRELAT20, FRELAT21, FRELAT22, FRELAT23, FRELAT24, FRELAT25, FRELATO2, FRELATO3, FRELATO4, FRELATO5, FRELATO6, FRELATO7, FRELATO8, FRELATO9, FRELATON)</t>
+  </si>
+  <si>
+    <t>R is 12-17, mother in hh</t>
+  </si>
+  <si>
+    <t>R is 12-17, no mother in hh</t>
+  </si>
+  <si>
+    <t>R is 12-17, don't know whether mother is in hh</t>
+  </si>
+  <si>
+    <t>R is 18 or older</t>
+  </si>
+  <si>
+    <t>IFATHER</t>
+  </si>
+  <si>
+    <t>RC-FATHER IN HH</t>
+  </si>
+  <si>
+    <t>MRELAT10, MRELAT11, MRELAT12, MRELAT13, MRELAT14, MRELAT15, MRELAT16, MRELAT17, MRELAT18, MRELAT19, MRELAT20, MRELAT21, MRELAT22, MRELAT23, MRELAT24, MRELAT25, MRELATO2, MRELATO3, MRELATO4, MRELATO5, MRELATO6, MRELATO7, MRELATO8, MRELATO9, MRELATON)</t>
+  </si>
+  <si>
+    <t>R is 12-17, father in hh</t>
+  </si>
+  <si>
+    <t>R is 12-17, no father in hh</t>
+  </si>
+  <si>
+    <t>R is 12-17, don't know whether father is in hh</t>
+  </si>
+  <si>
+    <t>NRCH17_2</t>
+  </si>
+  <si>
+    <t>RECODED # R's CHILDREN &lt; 18 IN HOUSEHOLD</t>
+  </si>
+  <si>
+    <t>0 - 2</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>3 or more</t>
+  </si>
+  <si>
+    <t>IRHHSIZ2</t>
+  </si>
+  <si>
+    <t>RECODE - IMPUTATION-REVISED # PERSONS IN HH</t>
+  </si>
+  <si>
+    <t>One person in household</t>
+  </si>
+  <si>
+    <t>Two people in household</t>
+  </si>
+  <si>
+    <t>Three people in household</t>
+  </si>
+  <si>
+    <t>Four people in household</t>
+  </si>
+  <si>
+    <t>Five people in household</t>
+  </si>
+  <si>
+    <t>6 or more people in household</t>
+  </si>
+  <si>
+    <t>IIHHSIZ2</t>
+  </si>
+  <si>
+    <t>IRHHSIZ2-IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>Questionnaire data</t>
+  </si>
+  <si>
+    <t>Statistically imputed data</t>
+  </si>
+  <si>
+    <t>IRKI17_2</t>
+  </si>
+  <si>
+    <t>RECODE - IMPUTATION-REVISED # KIDS AGED&lt;18 IN HH</t>
+  </si>
+  <si>
+    <t>No children under 18</t>
+  </si>
+  <si>
+    <t>One child under 18</t>
+  </si>
+  <si>
+    <t>Two children under 18</t>
+  </si>
+  <si>
+    <t>Three or more children under 18</t>
+  </si>
+  <si>
+    <t>IIKI17_2</t>
+  </si>
+  <si>
+    <t>IRKI17_2-IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>IRHH65_2</t>
+  </si>
+  <si>
+    <t>REC - IMPUTATION-REVISED # OF PER IN HH AGED&gt;=65</t>
+  </si>
+  <si>
+    <t>No people 65 or older in household</t>
+  </si>
+  <si>
+    <t>One person 65 or older in household</t>
+  </si>
+  <si>
+    <t>Two or more people 65 or older in household</t>
+  </si>
+  <si>
+    <t>IIHH65_2</t>
+  </si>
+  <si>
+    <t>IRHH65_2-IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>PRXRETRY</t>
+  </si>
+  <si>
+    <t>SELECTED PROXY UNAVAILABLE, OTHER PROXY AVAILABLE?</t>
+  </si>
+  <si>
+    <t>(
+QP03A)</t>
+  </si>
+  <si>
+    <t>PRXYDATA</t>
+  </si>
+  <si>
+    <t>IS PROXY ANSWERING INSURANCE/INCOME QS</t>
+  </si>
+  <si>
+    <t>(
+HASJOIN)</t>
+  </si>
+  <si>
+    <t>LEGITIMATE SKIP (Respondent answering)</t>
+  </si>
+  <si>
+    <t>MEDICARE</t>
+  </si>
+  <si>
+    <t>COVERED BY MEDICARE</t>
+  </si>
+  <si>
+    <t>(
+QHI01, QHI01V)</t>
+  </si>
+  <si>
+    <t>CAIDCHIP</t>
+  </si>
+  <si>
+    <t>COVERED BY MEDICAID/CHIP</t>
+  </si>
+  <si>
+    <t>(
+QHI02, QHI02A, QHI02V)</t>
+  </si>
+  <si>
+    <t>CHAMPUS</t>
+  </si>
+  <si>
+    <t>COV BY TRICARE, CHAMPUS, CHAMPVA, VA, MILITARY</t>
+  </si>
+  <si>
+    <t>(
+QHI03)</t>
+  </si>
+  <si>
+    <t>PRVHLTIN</t>
+  </si>
+  <si>
+    <t>COVERED BY PRIVATE INSURANCE</t>
+  </si>
+  <si>
+    <t>(
+QHI06)</t>
+  </si>
+  <si>
+    <t>GRPHLTIN</t>
+  </si>
+  <si>
+    <t>PRIVATE PLAN OFFERED THROUGH EMPLOYER OR UNION</t>
+  </si>
+  <si>
+    <t>(
+QHI07)</t>
+  </si>
+  <si>
+    <t>LEGITIMATE SKIP (PRVHLTIN</t>
+  </si>
+  <si>
+    <t>HLTINALC</t>
+  </si>
+  <si>
+    <t>ALCOHOL ABUSE OR ALCOHOLISM</t>
+  </si>
+  <si>
+    <t>(
+QHI08)</t>
+  </si>
+  <si>
+    <t>HLTINDRG</t>
+  </si>
+  <si>
+    <t>DRUG ABUSE</t>
+  </si>
+  <si>
+    <t>(
+QHI09)</t>
+  </si>
+  <si>
+    <t>HLTINMNT</t>
+  </si>
+  <si>
+    <t>MENTAL OR EMOTIONAL DIFFICULTIES</t>
+  </si>
+  <si>
+    <t>(
+QHI10)</t>
+  </si>
+  <si>
+    <t>HLTINNOS</t>
+  </si>
+  <si>
+    <t>COVERED BY HEALTH INSUR (NOT OTHERWISE SPECIFIED)</t>
+  </si>
+  <si>
+    <t>(
+QHI11)</t>
+  </si>
+  <si>
+    <t>HLCNOTYR</t>
+  </si>
+  <si>
+    <t>ANYTIME DID NOT HAVE HEALTH INS/COVER PAST 12 MOS</t>
+  </si>
+  <si>
+    <t>(
+QHI13)</t>
+  </si>
+  <si>
+    <t>HLCNOTMO</t>
+  </si>
+  <si>
+    <t>PAST 12 MOS, HOW MANY MOS W/O COVERAGE</t>
+  </si>
+  <si>
+    <t>(
+QHI14)</t>
+  </si>
+  <si>
+    <t>1 - 12</t>
+  </si>
+  <si>
+    <t>HLCLAST</t>
+  </si>
+  <si>
+    <t>TIME SINCE LAST HAD HEALTH CARE COVERAGE</t>
+  </si>
+  <si>
+    <t>(
+QHI15)</t>
+  </si>
+  <si>
+    <t>Within the past 6 months</t>
+  </si>
+  <si>
+    <t>More than 6 months ago, but within the past year</t>
+  </si>
+  <si>
+    <t>More than 1 year ago, but within the past 3 years</t>
+  </si>
+  <si>
+    <t>More than 3 years ago</t>
+  </si>
+  <si>
+    <t>Never had coverage</t>
+  </si>
+  <si>
+    <t>HLLOSRSN</t>
+  </si>
+  <si>
+    <t>MAIN REASON STOPPED COVERED BY HEALTH INSURANCE</t>
+  </si>
+  <si>
+    <t>(
+QHI17)</t>
+  </si>
+  <si>
+    <t>Pers in family w/health ins lost job/chng employer</t>
+  </si>
+  <si>
+    <t>Lost Medicaid/Med Assist  b/c new job/incr income</t>
+  </si>
+  <si>
+    <t>Lost Medicaid/Med Assist some other reason</t>
+  </si>
+  <si>
+    <t>Cost is too high/can't afford premiums</t>
+  </si>
+  <si>
+    <t>Became ineligible because of age or leaving school</t>
+  </si>
+  <si>
+    <t>Employer does not offer coverage, or not eligible</t>
+  </si>
+  <si>
+    <t>Got divorced or separated from person w/insurance</t>
+  </si>
+  <si>
+    <t>Death of spouse or parent</t>
+  </si>
+  <si>
+    <t>Insurance company refused coverage</t>
+  </si>
+  <si>
+    <t>Don't need it</t>
+  </si>
+  <si>
+    <t>Received Medicaid/med insur only while pregnant</t>
+  </si>
+  <si>
+    <t>HLNVCOST</t>
+  </si>
+  <si>
+    <t>COST TOO HIGH</t>
+  </si>
+  <si>
+    <t>(
+QHI18)</t>
+  </si>
+  <si>
+    <t>Response entered</t>
+  </si>
+  <si>
+    <t>Response not entered</t>
+  </si>
+  <si>
+    <t>HLNVOFFR</t>
+  </si>
+  <si>
+    <t>EMPLOYER DOESN'T OFFER</t>
+  </si>
+  <si>
+    <t>HLNVREF</t>
+  </si>
+  <si>
+    <t>INSURANCE COMPANY REFUSED COVERAGE</t>
+  </si>
+  <si>
+    <t>HLNVNEED</t>
+  </si>
+  <si>
+    <t>DON'T NEED IT</t>
+  </si>
+  <si>
+    <t>HLNVSOR</t>
+  </si>
+  <si>
+    <t>NEVER HAD HLTH INS SOME OTHER REASON</t>
+  </si>
+  <si>
+    <t>(QHI18)</t>
+  </si>
+  <si>
+    <t>IRMEDICR</t>
+  </si>
+  <si>
+    <t>MEDICARE - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>(
+MEDICARE)</t>
+  </si>
+  <si>
+    <t>Yes, respondent does have Medicare</t>
+  </si>
+  <si>
+    <t>No, respondent does not have Medicare</t>
+  </si>
+  <si>
+    <t>IIMEDICR</t>
+  </si>
+  <si>
+    <t>MEDICARE - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>IRMCDCHP</t>
+  </si>
+  <si>
+    <t>MEDICAID/CHIP - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>(
+CAIDCHIP)</t>
+  </si>
+  <si>
+    <t>Yes, respondent does have Medicaid/CHIP</t>
+  </si>
+  <si>
+    <t>No, respondent does not have Medicaid/CHIP</t>
+  </si>
+  <si>
+    <t>IIMCDCHP</t>
+  </si>
+  <si>
+    <t>MEDICAID/CHIP - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>IRCHMPUS</t>
+  </si>
+  <si>
+    <t>CHAMPUS - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>(
+CHAMPUS)</t>
+  </si>
+  <si>
+    <t>Yes, R has Tricare, Champus, VA, Military health</t>
+  </si>
+  <si>
+    <t>No, R doesn't have Tricare, Chmps, VA, Military health</t>
+  </si>
+  <si>
+    <t>IICHMPUS</t>
+  </si>
+  <si>
+    <t>CHAMPUS - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>IRPRVHLT</t>
+  </si>
+  <si>
+    <t>PRIVATE HEALTH INSURANCE - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>(
+PRVHLTIN)</t>
+  </si>
+  <si>
+    <t>Yes, R does have private health insurance</t>
+  </si>
+  <si>
+    <t>No, R does not have private health insurance</t>
+  </si>
+  <si>
+    <t>IIPRVHLT</t>
+  </si>
+  <si>
+    <t>PRIVATE HEALTH INSURANCE - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>IROTHHLT</t>
+  </si>
+  <si>
+    <t>OTHER HEALTH INSURANCE - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>Yes, R is covered by other health insurance</t>
+  </si>
+  <si>
+    <t>No, R is not covered by other health insurance</t>
+  </si>
+  <si>
+    <t>IIOTHHLT</t>
+  </si>
+  <si>
+    <t>OTHER HEALTH INSURANCE - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>HLCALLFG</t>
+  </si>
+  <si>
+    <t>FLAG IF EVERY FORM OF HEALTH INS REPORTED</t>
+  </si>
+  <si>
+    <t>Answered yes to all current health insurance Qs</t>
+  </si>
+  <si>
+    <t>HLCALL99</t>
+  </si>
+  <si>
+    <t>YES TO MEDICARE/MEDICAID/CHAMPUS/PRVHLTIN</t>
+  </si>
+  <si>
+    <t>ANYHLTI2</t>
+  </si>
+  <si>
+    <t>COVERED BY ANY HEALTH INSURANCE - RECODE</t>
+  </si>
+  <si>
+    <t>(
+CAIDCHIP, CHAMPUS, HLTINNOS, MEDICARE, PRVHLTIN)</t>
+  </si>
+  <si>
+    <t>OTHER MISSING</t>
+  </si>
+  <si>
+    <t>IRINSUR4</t>
+  </si>
+  <si>
+    <t>RC-OVERALL HEALTH INSURANCE - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>(
+IRCHMPUS, IRMCDCHP, IRMEDICR, IROTHHLT, IRPRVHLT)</t>
+  </si>
+  <si>
+    <t>Yes, respondent is covered by health insurance</t>
+  </si>
+  <si>
+    <t>No, respondent is not covered by health insurance</t>
+  </si>
+  <si>
+    <t>IIINSUR4</t>
+  </si>
+  <si>
+    <t>RC-OVERALL HEALTH INSURANCE - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>OTHINS</t>
+  </si>
+  <si>
+    <t>RC-HEALTH INSURANCE OTHER THAN PRIVATE, MEDICAID/CHIP</t>
+  </si>
+  <si>
+    <t>(
+IRCHMPUS, IRMEDICR, IROTHHLT)</t>
+  </si>
+  <si>
+    <t>Have Oth Hlth Insur (IRMEDICR</t>
+  </si>
+  <si>
+    <t>Does not have Other Health Insurance (Otherwise)</t>
+  </si>
+  <si>
+    <t>CELLWRKNG</t>
+  </si>
+  <si>
+    <t>WORKING CELL PHONE</t>
+  </si>
+  <si>
+    <t>(
+CELL2)</t>
+  </si>
+  <si>
+    <t>CELLNOTCL</t>
+  </si>
+  <si>
+    <t>NOT A CELL PHONE</t>
+  </si>
+  <si>
+    <t>(
+CELL1)</t>
+  </si>
+  <si>
+    <t>IRFAMSOC</t>
+  </si>
+  <si>
+    <t>FAM RECEIVE SS OR RR PAYMENTS - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>IIFAMSOC</t>
+  </si>
+  <si>
+    <t>FAM RECEIVE SS OR RR PAYMENTS - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>IRFAMSSI</t>
+  </si>
+  <si>
+    <t>FAM RECEIVE SSI - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>IIFAMSSI</t>
+  </si>
+  <si>
+    <t>FAM RECEIVE SSI - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>IRFSTAMP</t>
+  </si>
+  <si>
+    <t>RESP/OTH FAM MEM REC FOOD STAMPS - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>IIFSTAMP</t>
+  </si>
+  <si>
+    <t>RESP/OTH FAM MEM REC FOOD STAMPS - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>IRFAMPMT</t>
+  </si>
+  <si>
+    <t>FAM RECEIVE PUBLIC ASSIST - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>IIFAMPMT</t>
+  </si>
+  <si>
+    <t>FAM RECEIVE PUBLIC ASSIST - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>IRFAMSVC</t>
+  </si>
+  <si>
+    <t>FAM REC WELFARE/JOB PL/CHILDCARE - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>IIFAMSVC</t>
+  </si>
+  <si>
+    <t>FAM REC WELFARE/JOB PL/CHILDCARE - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>IRWELMOS</t>
+  </si>
+  <si>
+    <t>NO OF MONTHS ON WELFARE - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>(
+IRFAMPMT, IRFAMSVC)</t>
+  </si>
+  <si>
+    <t>IIWELMOS</t>
+  </si>
+  <si>
+    <t>NO OF MONTHS ON WELFARE - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>IRPINC3</t>
+  </si>
+  <si>
+    <t>RECODE -RESP TOT INCOME - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>Less than $10,000 (Including Loss)</t>
+  </si>
+  <si>
+    <t>$10,000 - $19,999</t>
+  </si>
+  <si>
+    <t>$20,000 - $29,999</t>
+  </si>
+  <si>
+    <t>$30,000 - $39,999</t>
+  </si>
+  <si>
+    <t>$40,000 - $49,999</t>
+  </si>
+  <si>
+    <t>$50,000 - $74,999</t>
+  </si>
+  <si>
+    <t>$75,000 or more</t>
+  </si>
+  <si>
+    <t>IRFAMIN3</t>
+  </si>
+  <si>
+    <t>RECODE - TOT FAM INCOME - IMPUTATION REVISED</t>
+  </si>
+  <si>
+    <t>IIPINC3</t>
+  </si>
+  <si>
+    <t>RECODE - RESP TOT INCOME - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>IIFAMIN3</t>
+  </si>
+  <si>
+    <t>RECODE - TOT FAM INCOME - IMPUTATION INDICATOR</t>
+  </si>
+  <si>
+    <t>GOVTPROG</t>
+  </si>
+  <si>
+    <t>RC-PARTICIPATED IN ONE OR MORE GOVT ASSIST PROGRAMS</t>
+  </si>
+  <si>
+    <t>(
+IRFAMPMT, IRFAMSSI, IRFAMSVC, IRFSTAMP)</t>
+  </si>
+  <si>
+    <t>Yes (Any source variable</t>
+  </si>
+  <si>
+    <t>No (All source variables</t>
+  </si>
+  <si>
+    <t>INCOME</t>
+  </si>
+  <si>
+    <t>RC-TOTAL FAMILY INCOME RECODE</t>
+  </si>
+  <si>
+    <t>Less than $20,000</t>
+  </si>
+  <si>
+    <t>$20,000 - $49,999</t>
+  </si>
+  <si>
+    <t>$75,000 or More</t>
+  </si>
+  <si>
+    <t>POVERTY3</t>
+  </si>
+  <si>
+    <t>RC-POVERTY LEVEL (% OF US CENSUS POVERTY THRESHOLD)</t>
+  </si>
+  <si>
+    <t>Persons Aged 18-22 in a College Dorm (See comment above)</t>
+  </si>
+  <si>
+    <t>Living in Poverty (See comment above)</t>
+  </si>
+  <si>
+    <t>Income Up to 2X Fed Pov Thresh (See comment above)</t>
+  </si>
+  <si>
+    <t>Income More Than 2X Fed Pov Thresh (See comment above)</t>
+  </si>
+  <si>
+    <t>BOOKED</t>
+  </si>
+  <si>
+    <t>EVER ARRESTED AND BOOKED FOR BREAKING THE LAW</t>
+  </si>
+  <si>
+    <t>(
+SP01)</t>
+  </si>
+  <si>
+    <t>Yes LOGICALLY ASSIGNED</t>
+  </si>
+  <si>
+    <t>NOBOOKY2</t>
+  </si>
+  <si>
+    <t># TIMES ARRESTED AND BOOKED PAST 12 MONTHS</t>
+  </si>
+  <si>
+    <t>(
+SP02, SP03S)</t>
+  </si>
+  <si>
+    <t>LEGITIMATE SKIP (BOOKED</t>
+  </si>
+  <si>
+    <t>BKMVTHFT</t>
+  </si>
+  <si>
+    <t>ARRSTD &amp; BOOKED FOR MOT VEH THEFT PAST 12 MONTHS</t>
+  </si>
+  <si>
+    <t>(
+SP03A)</t>
+  </si>
+  <si>
+    <t>LEGITIMATE SKIP Logically assigned</t>
   </si>
 </sst>
 </file>
@@ -2168,10 +3248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D41E759-A88E-FE41-98D0-BB85D2594410}">
-  <dimension ref="A1:E481"/>
+  <dimension ref="A1:E909"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="E481" sqref="E481"/>
+    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
+      <selection activeCell="E483" sqref="E483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10192,6 +11272,7142 @@
         <v>38</v>
       </c>
     </row>
+    <row r="482" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>407</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D482" t="s">
+        <v>273</v>
+      </c>
+      <c r="E482" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>407</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D483">
+        <v>1983</v>
+      </c>
+      <c r="E483" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>407</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D484">
+        <v>9985</v>
+      </c>
+      <c r="E484" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>407</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D485">
+        <v>9991</v>
+      </c>
+      <c r="E485" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>407</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D486">
+        <v>9994</v>
+      </c>
+      <c r="E486" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>407</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D487">
+        <v>9997</v>
+      </c>
+      <c r="E487" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>407</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D488">
+        <v>9998</v>
+      </c>
+      <c r="E488" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>407</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D489">
+        <v>9999</v>
+      </c>
+      <c r="E489" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>413</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D490" t="s">
+        <v>273</v>
+      </c>
+      <c r="E490" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>413</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
+      </c>
+      <c r="E491" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>413</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D492">
+        <v>85</v>
+      </c>
+      <c r="E492" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>413</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D493">
+        <v>94</v>
+      </c>
+      <c r="E493" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>413</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D494">
+        <v>97</v>
+      </c>
+      <c r="E494" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>413</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D495">
+        <v>98</v>
+      </c>
+      <c r="E495" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>413</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D496">
+        <v>99</v>
+      </c>
+      <c r="E496" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>417</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D497" t="s">
+        <v>273</v>
+      </c>
+      <c r="E497" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>417</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+      <c r="E498" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>417</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D499">
+        <v>85</v>
+      </c>
+      <c r="E499" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>417</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D500">
+        <v>94</v>
+      </c>
+      <c r="E500" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>417</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D501">
+        <v>97</v>
+      </c>
+      <c r="E501" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>417</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D502">
+        <v>98</v>
+      </c>
+      <c r="E502" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>417</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D503">
+        <v>99</v>
+      </c>
+      <c r="E503" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>420</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D504">
+        <v>1</v>
+      </c>
+      <c r="E504" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>420</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D505">
+        <v>2</v>
+      </c>
+      <c r="E505" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>420</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D506">
+        <v>85</v>
+      </c>
+      <c r="E506" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>420</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D507">
+        <v>94</v>
+      </c>
+      <c r="E507" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>420</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D508">
+        <v>97</v>
+      </c>
+      <c r="E508" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>420</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D509">
+        <v>98</v>
+      </c>
+      <c r="E509" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>420</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D510">
+        <v>99</v>
+      </c>
+      <c r="E510" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>423</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D511">
+        <v>1</v>
+      </c>
+      <c r="E511" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>423</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D512">
+        <v>2</v>
+      </c>
+      <c r="E512" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>423</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D513">
+        <v>3</v>
+      </c>
+      <c r="E513" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>423</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D514">
+        <v>85</v>
+      </c>
+      <c r="E514" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>423</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D515">
+        <v>94</v>
+      </c>
+      <c r="E515" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>423</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D516">
+        <v>97</v>
+      </c>
+      <c r="E516" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>423</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D517">
+        <v>98</v>
+      </c>
+      <c r="E517" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>423</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D518">
+        <v>99</v>
+      </c>
+      <c r="E518" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>429</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D519">
+        <v>1</v>
+      </c>
+      <c r="E519" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>429</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D520">
+        <v>2</v>
+      </c>
+      <c r="E520" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>429</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D521">
+        <v>85</v>
+      </c>
+      <c r="E521" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>429</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D522">
+        <v>94</v>
+      </c>
+      <c r="E522" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>429</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D523">
+        <v>97</v>
+      </c>
+      <c r="E523" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>429</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D524">
+        <v>98</v>
+      </c>
+      <c r="E524" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>429</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D525">
+        <v>99</v>
+      </c>
+      <c r="E525" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>432</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D526">
+        <v>1</v>
+      </c>
+      <c r="E526" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>432</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D527">
+        <v>2</v>
+      </c>
+      <c r="E527" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>432</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D528">
+        <v>85</v>
+      </c>
+      <c r="E528" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>432</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D529">
+        <v>94</v>
+      </c>
+      <c r="E529" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>432</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D530">
+        <v>97</v>
+      </c>
+      <c r="E530" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>432</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D531">
+        <v>98</v>
+      </c>
+      <c r="E531" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>432</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D532">
+        <v>99</v>
+      </c>
+      <c r="E532" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>435</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D533">
+        <v>1</v>
+      </c>
+      <c r="E533" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>435</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D534">
+        <v>2</v>
+      </c>
+      <c r="E534" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>435</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D535">
+        <v>85</v>
+      </c>
+      <c r="E535" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>435</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D536">
+        <v>94</v>
+      </c>
+      <c r="E536" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>435</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D537">
+        <v>97</v>
+      </c>
+      <c r="E537" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>435</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D538">
+        <v>98</v>
+      </c>
+      <c r="E538" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>435</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D539">
+        <v>99</v>
+      </c>
+      <c r="E539" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>438</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D540">
+        <v>1</v>
+      </c>
+      <c r="E540" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>438</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D541">
+        <v>2</v>
+      </c>
+      <c r="E541" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>438</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D542">
+        <v>85</v>
+      </c>
+      <c r="E542" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>438</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D543">
+        <v>94</v>
+      </c>
+      <c r="E543" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>438</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D544">
+        <v>97</v>
+      </c>
+      <c r="E544" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>438</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D545">
+        <v>98</v>
+      </c>
+      <c r="E545" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>438</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D546">
+        <v>99</v>
+      </c>
+      <c r="E546" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>441</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D547">
+        <v>1</v>
+      </c>
+      <c r="E547" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>441</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D548">
+        <v>2</v>
+      </c>
+      <c r="E548" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>441</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D549">
+        <v>85</v>
+      </c>
+      <c r="E549" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>441</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D550">
+        <v>94</v>
+      </c>
+      <c r="E550" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>441</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D551">
+        <v>97</v>
+      </c>
+      <c r="E551" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>441</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D552">
+        <v>98</v>
+      </c>
+      <c r="E552" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>441</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D553">
+        <v>99</v>
+      </c>
+      <c r="E553" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>444</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
+      </c>
+      <c r="E554" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>444</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D555">
+        <v>2</v>
+      </c>
+      <c r="E555" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>444</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D556">
+        <v>85</v>
+      </c>
+      <c r="E556" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>444</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D557">
+        <v>94</v>
+      </c>
+      <c r="E557" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>444</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D558">
+        <v>97</v>
+      </c>
+      <c r="E558" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>444</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D559">
+        <v>98</v>
+      </c>
+      <c r="E559" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>444</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D560">
+        <v>99</v>
+      </c>
+      <c r="E560" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>447</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D561">
+        <v>1</v>
+      </c>
+      <c r="E561" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>447</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D562">
+        <v>2</v>
+      </c>
+      <c r="E562" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>447</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D563">
+        <v>3</v>
+      </c>
+      <c r="E563" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>447</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D564">
+        <v>4</v>
+      </c>
+      <c r="E564" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>447</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D565">
+        <v>5</v>
+      </c>
+      <c r="E565" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>447</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D566">
+        <v>85</v>
+      </c>
+      <c r="E566" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>447</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D567">
+        <v>94</v>
+      </c>
+      <c r="E567" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>447</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D568">
+        <v>97</v>
+      </c>
+      <c r="E568" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>447</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D569">
+        <v>98</v>
+      </c>
+      <c r="E569" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>447</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D570">
+        <v>99</v>
+      </c>
+      <c r="E570" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>455</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>455</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D572">
+        <v>2</v>
+      </c>
+      <c r="E572" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>455</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D573">
+        <v>3</v>
+      </c>
+      <c r="E573" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>455</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D574">
+        <v>85</v>
+      </c>
+      <c r="E574" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>455</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D575">
+        <v>94</v>
+      </c>
+      <c r="E575" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>455</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D576">
+        <v>97</v>
+      </c>
+      <c r="E576" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>455</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D577">
+        <v>98</v>
+      </c>
+      <c r="E577" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>455</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D578">
+        <v>99</v>
+      </c>
+      <c r="E578" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>461</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
+      </c>
+      <c r="E579" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>461</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D580">
+        <v>2</v>
+      </c>
+      <c r="E580" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>461</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D581">
+        <v>3</v>
+      </c>
+      <c r="E581" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>461</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D582">
+        <v>85</v>
+      </c>
+      <c r="E582" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>461</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D583">
+        <v>94</v>
+      </c>
+      <c r="E583" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>461</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D584">
+        <v>97</v>
+      </c>
+      <c r="E584" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>461</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D585">
+        <v>98</v>
+      </c>
+      <c r="E585" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>461</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D586">
+        <v>99</v>
+      </c>
+      <c r="E586" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>465</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
+      </c>
+      <c r="E587" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>465</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D588">
+        <v>2</v>
+      </c>
+      <c r="E588" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>465</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D589">
+        <v>3</v>
+      </c>
+      <c r="E589" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>465</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D590">
+        <v>4</v>
+      </c>
+      <c r="E590" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>465</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D591">
+        <v>99</v>
+      </c>
+      <c r="E591" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>473</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D592">
+        <v>1</v>
+      </c>
+      <c r="E592" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>473</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D593">
+        <v>3</v>
+      </c>
+      <c r="E593" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>473</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D594">
+        <v>9</v>
+      </c>
+      <c r="E594" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>478</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
+      </c>
+      <c r="E595" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>478</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D596">
+        <v>3</v>
+      </c>
+      <c r="E596" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>478</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D597">
+        <v>4</v>
+      </c>
+      <c r="E597" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>478</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D598">
+        <v>9</v>
+      </c>
+      <c r="E598" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>482</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+      <c r="E599" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>482</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D600">
+        <v>2</v>
+      </c>
+      <c r="E600" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>482</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D601">
+        <v>3</v>
+      </c>
+      <c r="E601" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>482</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D602">
+        <v>4</v>
+      </c>
+      <c r="E602" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>482</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D603">
+        <v>99</v>
+      </c>
+      <c r="E603" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>486</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
+      </c>
+      <c r="E604" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>486</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D605">
+        <v>3</v>
+      </c>
+      <c r="E605" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>486</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D606">
+        <v>9</v>
+      </c>
+      <c r="E606" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>490</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+      <c r="E607" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>490</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D608">
+        <v>3</v>
+      </c>
+      <c r="E608" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>490</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D609">
+        <v>4</v>
+      </c>
+      <c r="E609" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>490</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D610">
+        <v>9</v>
+      </c>
+      <c r="E610" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>493</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C611" s="1"/>
+      <c r="D611">
+        <v>0</v>
+      </c>
+      <c r="E611" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>493</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C612" s="1"/>
+      <c r="D612">
+        <v>1</v>
+      </c>
+      <c r="E612" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>493</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C613" s="1"/>
+      <c r="D613">
+        <v>98</v>
+      </c>
+      <c r="E613" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>498</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D614">
+        <v>1</v>
+      </c>
+      <c r="E614" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>498</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D615">
+        <v>2</v>
+      </c>
+      <c r="E615" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>498</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D616">
+        <v>3</v>
+      </c>
+      <c r="E616" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>498</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D617">
+        <v>4</v>
+      </c>
+      <c r="E617" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>505</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D618">
+        <v>1</v>
+      </c>
+      <c r="E618" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>505</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D619">
+        <v>2</v>
+      </c>
+      <c r="E619" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>505</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D620">
+        <v>3</v>
+      </c>
+      <c r="E620" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>505</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D621">
+        <v>4</v>
+      </c>
+      <c r="E621" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>511</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C622" s="1"/>
+      <c r="D622" t="s">
+        <v>273</v>
+      </c>
+      <c r="E622" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>511</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C623" s="1"/>
+      <c r="D623" t="s">
+        <v>241</v>
+      </c>
+      <c r="E623" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>511</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C624" s="1"/>
+      <c r="D624">
+        <v>3</v>
+      </c>
+      <c r="E624" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>516</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C625" s="1"/>
+      <c r="D625">
+        <v>1</v>
+      </c>
+      <c r="E625" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>516</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C626" s="1"/>
+      <c r="D626">
+        <v>2</v>
+      </c>
+      <c r="E626" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>516</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C627" s="1"/>
+      <c r="D627">
+        <v>3</v>
+      </c>
+      <c r="E627" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>516</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C628" s="1"/>
+      <c r="D628">
+        <v>4</v>
+      </c>
+      <c r="E628" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>516</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C629" s="1"/>
+      <c r="D629">
+        <v>5</v>
+      </c>
+      <c r="E629" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>516</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C630" s="1"/>
+      <c r="D630">
+        <v>6</v>
+      </c>
+      <c r="E630" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>524</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C631" s="1"/>
+      <c r="D631">
+        <v>1</v>
+      </c>
+      <c r="E631" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>524</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C632" s="1"/>
+      <c r="D632">
+        <v>3</v>
+      </c>
+      <c r="E632" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>528</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C633" s="1"/>
+      <c r="D633">
+        <v>1</v>
+      </c>
+      <c r="E633" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>528</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C634" s="1"/>
+      <c r="D634">
+        <v>2</v>
+      </c>
+      <c r="E634" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>528</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C635" s="1"/>
+      <c r="D635">
+        <v>3</v>
+      </c>
+      <c r="E635" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>528</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C636" s="1"/>
+      <c r="D636">
+        <v>4</v>
+      </c>
+      <c r="E636" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>534</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C637" s="1"/>
+      <c r="D637">
+        <v>1</v>
+      </c>
+      <c r="E637" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>534</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C638" s="1"/>
+      <c r="D638">
+        <v>3</v>
+      </c>
+      <c r="E638" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>536</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C639" s="1"/>
+      <c r="D639">
+        <v>1</v>
+      </c>
+      <c r="E639" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>536</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C640" s="1"/>
+      <c r="D640">
+        <v>2</v>
+      </c>
+      <c r="E640" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>536</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C641" s="1"/>
+      <c r="D641">
+        <v>3</v>
+      </c>
+      <c r="E641" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>541</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C642" s="1"/>
+      <c r="D642">
+        <v>1</v>
+      </c>
+      <c r="E642" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>541</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C643" s="1"/>
+      <c r="D643">
+        <v>3</v>
+      </c>
+      <c r="E643" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>543</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D644">
+        <v>2</v>
+      </c>
+      <c r="E644" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>543</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D645">
+        <v>94</v>
+      </c>
+      <c r="E645" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>543</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D646">
+        <v>97</v>
+      </c>
+      <c r="E646" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>543</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D647">
+        <v>98</v>
+      </c>
+      <c r="E647" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>543</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D648">
+        <v>99</v>
+      </c>
+      <c r="E648" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>546</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D649">
+        <v>1</v>
+      </c>
+      <c r="E649" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>546</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D650">
+        <v>2</v>
+      </c>
+      <c r="E650" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>546</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D651">
+        <v>94</v>
+      </c>
+      <c r="E651" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>546</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D652">
+        <v>97</v>
+      </c>
+      <c r="E652" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>546</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D653">
+        <v>98</v>
+      </c>
+      <c r="E653" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>546</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D654">
+        <v>99</v>
+      </c>
+      <c r="E654" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>550</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D655">
+        <v>1</v>
+      </c>
+      <c r="E655" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>550</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D656">
+        <v>2</v>
+      </c>
+      <c r="E656" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>550</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D657">
+        <v>85</v>
+      </c>
+      <c r="E657" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>550</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D658">
+        <v>94</v>
+      </c>
+      <c r="E658" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>550</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D659">
+        <v>97</v>
+      </c>
+      <c r="E659" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>550</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D660">
+        <v>98</v>
+      </c>
+      <c r="E660" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>553</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D661">
+        <v>1</v>
+      </c>
+      <c r="E661" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>553</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D662">
+        <v>2</v>
+      </c>
+      <c r="E662" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>553</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D663">
+        <v>85</v>
+      </c>
+      <c r="E663" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>553</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D664">
+        <v>94</v>
+      </c>
+      <c r="E664" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>553</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D665">
+        <v>97</v>
+      </c>
+      <c r="E665" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>553</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D666">
+        <v>98</v>
+      </c>
+      <c r="E666" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>556</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D667">
+        <v>1</v>
+      </c>
+      <c r="E667" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>556</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D668">
+        <v>2</v>
+      </c>
+      <c r="E668" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>556</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D669">
+        <v>85</v>
+      </c>
+      <c r="E669" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>556</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D670">
+        <v>94</v>
+      </c>
+      <c r="E670" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>556</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D671">
+        <v>97</v>
+      </c>
+      <c r="E671" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>556</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D672">
+        <v>98</v>
+      </c>
+      <c r="E672" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>559</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D673">
+        <v>1</v>
+      </c>
+      <c r="E673" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>559</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D674">
+        <v>2</v>
+      </c>
+      <c r="E674" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>559</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D675">
+        <v>85</v>
+      </c>
+      <c r="E675" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>559</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D676">
+        <v>94</v>
+      </c>
+      <c r="E676" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>559</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D677">
+        <v>97</v>
+      </c>
+      <c r="E677" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>559</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D678">
+        <v>98</v>
+      </c>
+      <c r="E678" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>562</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D679">
+        <v>1</v>
+      </c>
+      <c r="E679" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>562</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D680">
+        <v>2</v>
+      </c>
+      <c r="E680" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>562</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D681">
+        <v>85</v>
+      </c>
+      <c r="E681" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>562</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D682">
+        <v>94</v>
+      </c>
+      <c r="E682" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>562</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D683">
+        <v>97</v>
+      </c>
+      <c r="E683" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>562</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D684">
+        <v>98</v>
+      </c>
+      <c r="E684" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>562</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D685">
+        <v>99</v>
+      </c>
+      <c r="E685" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>566</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D686">
+        <v>1</v>
+      </c>
+      <c r="E686" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>566</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D687">
+        <v>2</v>
+      </c>
+      <c r="E687" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>566</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D688">
+        <v>85</v>
+      </c>
+      <c r="E688" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>566</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D689">
+        <v>94</v>
+      </c>
+      <c r="E689" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>566</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D690">
+        <v>97</v>
+      </c>
+      <c r="E690" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>566</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D691">
+        <v>98</v>
+      </c>
+      <c r="E691" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>566</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D692">
+        <v>99</v>
+      </c>
+      <c r="E692" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>569</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D693">
+        <v>1</v>
+      </c>
+      <c r="E693" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>569</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D694">
+        <v>2</v>
+      </c>
+      <c r="E694" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>569</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D695">
+        <v>85</v>
+      </c>
+      <c r="E695" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>569</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D696">
+        <v>94</v>
+      </c>
+      <c r="E696" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>569</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D697">
+        <v>97</v>
+      </c>
+      <c r="E697" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>569</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D698">
+        <v>98</v>
+      </c>
+      <c r="E698" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>569</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D699">
+        <v>99</v>
+      </c>
+      <c r="E699" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>572</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D700">
+        <v>1</v>
+      </c>
+      <c r="E700" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>572</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D701">
+        <v>2</v>
+      </c>
+      <c r="E701" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>572</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D702">
+        <v>85</v>
+      </c>
+      <c r="E702" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>572</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D703">
+        <v>94</v>
+      </c>
+      <c r="E703" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>572</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D704">
+        <v>97</v>
+      </c>
+      <c r="E704" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>572</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D705">
+        <v>98</v>
+      </c>
+      <c r="E705" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>572</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D706">
+        <v>99</v>
+      </c>
+      <c r="E706" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>575</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D707">
+        <v>1</v>
+      </c>
+      <c r="E707" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>575</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D708">
+        <v>2</v>
+      </c>
+      <c r="E708" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>575</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D709">
+        <v>85</v>
+      </c>
+      <c r="E709" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>575</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D710">
+        <v>94</v>
+      </c>
+      <c r="E710" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>575</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D711">
+        <v>97</v>
+      </c>
+      <c r="E711" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>575</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D712">
+        <v>98</v>
+      </c>
+      <c r="E712" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>575</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D713">
+        <v>99</v>
+      </c>
+      <c r="E713" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>578</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D714">
+        <v>1</v>
+      </c>
+      <c r="E714" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>578</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D715">
+        <v>2</v>
+      </c>
+      <c r="E715" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>578</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D716">
+        <v>85</v>
+      </c>
+      <c r="E716" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>578</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D717">
+        <v>94</v>
+      </c>
+      <c r="E717" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>578</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D718">
+        <v>97</v>
+      </c>
+      <c r="E718" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>578</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D719">
+        <v>98</v>
+      </c>
+      <c r="E719" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>578</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D720">
+        <v>99</v>
+      </c>
+      <c r="E720" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>581</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D721" t="s">
+        <v>273</v>
+      </c>
+      <c r="E721" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>581</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D722">
+        <v>85</v>
+      </c>
+      <c r="E722" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>581</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D723">
+        <v>94</v>
+      </c>
+      <c r="E723" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>581</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D724">
+        <v>97</v>
+      </c>
+      <c r="E724" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>581</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D725">
+        <v>98</v>
+      </c>
+      <c r="E725" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>581</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D726">
+        <v>99</v>
+      </c>
+      <c r="E726" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>585</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D727">
+        <v>1</v>
+      </c>
+      <c r="E727" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>585</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D728">
+        <v>2</v>
+      </c>
+      <c r="E728" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>585</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D729">
+        <v>3</v>
+      </c>
+      <c r="E729" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>585</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D730">
+        <v>4</v>
+      </c>
+      <c r="E730" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>585</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D731">
+        <v>5</v>
+      </c>
+      <c r="E731" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>585</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D732">
+        <v>85</v>
+      </c>
+      <c r="E732" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>585</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D733">
+        <v>94</v>
+      </c>
+      <c r="E733" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>585</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D734">
+        <v>97</v>
+      </c>
+      <c r="E734" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>585</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D735">
+        <v>98</v>
+      </c>
+      <c r="E735" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>585</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D736">
+        <v>99</v>
+      </c>
+      <c r="E736" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>593</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D737">
+        <v>1</v>
+      </c>
+      <c r="E737" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>593</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D738">
+        <v>2</v>
+      </c>
+      <c r="E738" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>593</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D739">
+        <v>3</v>
+      </c>
+      <c r="E739" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>593</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D740">
+        <v>4</v>
+      </c>
+      <c r="E740" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>593</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D741">
+        <v>5</v>
+      </c>
+      <c r="E741" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>593</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D742">
+        <v>6</v>
+      </c>
+      <c r="E742" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>593</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D743">
+        <v>7</v>
+      </c>
+      <c r="E743" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>593</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D744">
+        <v>8</v>
+      </c>
+      <c r="E744" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>593</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D745">
+        <v>9</v>
+      </c>
+      <c r="E745" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>593</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D746">
+        <v>10</v>
+      </c>
+      <c r="E746" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>593</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D747">
+        <v>11</v>
+      </c>
+      <c r="E747" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>593</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D748">
+        <v>12</v>
+      </c>
+      <c r="E748" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>593</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D749">
+        <v>85</v>
+      </c>
+      <c r="E749" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>593</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D750">
+        <v>94</v>
+      </c>
+      <c r="E750" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>593</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D751">
+        <v>97</v>
+      </c>
+      <c r="E751" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>593</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D752">
+        <v>98</v>
+      </c>
+      <c r="E752" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>593</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D753">
+        <v>99</v>
+      </c>
+      <c r="E753" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>607</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C754" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D754">
+        <v>1</v>
+      </c>
+      <c r="E754" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>607</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C755" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D755">
+        <v>6</v>
+      </c>
+      <c r="E755" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>607</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C756" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D756">
+        <v>94</v>
+      </c>
+      <c r="E756" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>607</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D757">
+        <v>97</v>
+      </c>
+      <c r="E757" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>607</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D758">
+        <v>98</v>
+      </c>
+      <c r="E758" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>607</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D759">
+        <v>99</v>
+      </c>
+      <c r="E759" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>612</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D760">
+        <v>1</v>
+      </c>
+      <c r="E760" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>612</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C761" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D761">
+        <v>6</v>
+      </c>
+      <c r="E761" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>612</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D762">
+        <v>94</v>
+      </c>
+      <c r="E762" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>612</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D763">
+        <v>97</v>
+      </c>
+      <c r="E763" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>612</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D764">
+        <v>98</v>
+      </c>
+      <c r="E764" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>612</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D765">
+        <v>99</v>
+      </c>
+      <c r="E765" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>614</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C766" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D766">
+        <v>1</v>
+      </c>
+      <c r="E766" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>614</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D767">
+        <v>6</v>
+      </c>
+      <c r="E767" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>614</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C768" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D768">
+        <v>94</v>
+      </c>
+      <c r="E768" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>614</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D769">
+        <v>97</v>
+      </c>
+      <c r="E769" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>614</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D770">
+        <v>98</v>
+      </c>
+      <c r="E770" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>614</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D771">
+        <v>99</v>
+      </c>
+      <c r="E771" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>616</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D772">
+        <v>1</v>
+      </c>
+      <c r="E772" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>616</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D773">
+        <v>6</v>
+      </c>
+      <c r="E773" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>616</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D774">
+        <v>94</v>
+      </c>
+      <c r="E774" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>616</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D775">
+        <v>97</v>
+      </c>
+      <c r="E775" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>616</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D776">
+        <v>98</v>
+      </c>
+      <c r="E776" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>616</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D777">
+        <v>99</v>
+      </c>
+      <c r="E777" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>618</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D778">
+        <v>1</v>
+      </c>
+      <c r="E778" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>618</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D779">
+        <v>6</v>
+      </c>
+      <c r="E779" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>618</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D780">
+        <v>94</v>
+      </c>
+      <c r="E780" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>618</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C781" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D781">
+        <v>97</v>
+      </c>
+      <c r="E781" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>618</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D782">
+        <v>98</v>
+      </c>
+      <c r="E782" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>618</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D783">
+        <v>99</v>
+      </c>
+      <c r="E783" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>621</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D784">
+        <v>1</v>
+      </c>
+      <c r="E784" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>621</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D785">
+        <v>2</v>
+      </c>
+      <c r="E785" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>626</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D786">
+        <v>1</v>
+      </c>
+      <c r="E786" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>626</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D787">
+        <v>3</v>
+      </c>
+      <c r="E787" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>628</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D788">
+        <v>1</v>
+      </c>
+      <c r="E788" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>628</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D789">
+        <v>2</v>
+      </c>
+      <c r="E789" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>633</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D790">
+        <v>1</v>
+      </c>
+      <c r="E790" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>633</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D791">
+        <v>3</v>
+      </c>
+      <c r="E791" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>635</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D792">
+        <v>1</v>
+      </c>
+      <c r="E792" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>635</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D793">
+        <v>2</v>
+      </c>
+      <c r="E793" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>640</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D794">
+        <v>1</v>
+      </c>
+      <c r="E794" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>640</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D795">
+        <v>3</v>
+      </c>
+      <c r="E795" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>642</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C796" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D796">
+        <v>1</v>
+      </c>
+      <c r="E796" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>642</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D797">
+        <v>2</v>
+      </c>
+      <c r="E797" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>647</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D798">
+        <v>1</v>
+      </c>
+      <c r="E798" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>647</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D799">
+        <v>3</v>
+      </c>
+      <c r="E799" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>649</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D800">
+        <v>1</v>
+      </c>
+      <c r="E800" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>649</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D801">
+        <v>2</v>
+      </c>
+      <c r="E801" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>649</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D802">
+        <v>99</v>
+      </c>
+      <c r="E802" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>654</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C803" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D803">
+        <v>1</v>
+      </c>
+      <c r="E803" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>654</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D804">
+        <v>3</v>
+      </c>
+      <c r="E804" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>654</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D805">
+        <v>9</v>
+      </c>
+      <c r="E805" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>656</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C806" s="1"/>
+      <c r="D806">
+        <v>1</v>
+      </c>
+      <c r="E806" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>656</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C807" s="1"/>
+      <c r="D807">
+        <v>98</v>
+      </c>
+      <c r="E807" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>659</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C808" s="1"/>
+      <c r="D808">
+        <v>1</v>
+      </c>
+      <c r="E808" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>659</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C809" s="1"/>
+      <c r="D809">
+        <v>98</v>
+      </c>
+      <c r="E809" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>661</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D810">
+        <v>1</v>
+      </c>
+      <c r="E810" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>661</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D811">
+        <v>2</v>
+      </c>
+      <c r="E811" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>661</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D812">
+        <v>94</v>
+      </c>
+      <c r="E812" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>661</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D813">
+        <v>97</v>
+      </c>
+      <c r="E813" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>661</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D814">
+        <v>98</v>
+      </c>
+      <c r="E814" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>665</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D815">
+        <v>1</v>
+      </c>
+      <c r="E815" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>665</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C816" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D816">
+        <v>2</v>
+      </c>
+      <c r="E816" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>670</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D817">
+        <v>1</v>
+      </c>
+      <c r="E817" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>670</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D818">
+        <v>3</v>
+      </c>
+      <c r="E818" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>672</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D819">
+        <v>1</v>
+      </c>
+      <c r="E819" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>672</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D820">
+        <v>2</v>
+      </c>
+      <c r="E820" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>677</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D821">
+        <v>1</v>
+      </c>
+      <c r="E821" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>677</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D822">
+        <v>2</v>
+      </c>
+      <c r="E822" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>677</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D823">
+        <v>85</v>
+      </c>
+      <c r="E823" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>677</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D824">
+        <v>94</v>
+      </c>
+      <c r="E824" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>677</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D825">
+        <v>97</v>
+      </c>
+      <c r="E825" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>677</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D826">
+        <v>98</v>
+      </c>
+      <c r="E826" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>680</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D827">
+        <v>1</v>
+      </c>
+      <c r="E827" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>680</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D828">
+        <v>2</v>
+      </c>
+      <c r="E828" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>680</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D829">
+        <v>85</v>
+      </c>
+      <c r="E829" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>680</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D830">
+        <v>94</v>
+      </c>
+      <c r="E830" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>680</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D831">
+        <v>97</v>
+      </c>
+      <c r="E831" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>680</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D832">
+        <v>98</v>
+      </c>
+      <c r="E832" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>683</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C833" s="1"/>
+      <c r="D833">
+        <v>1</v>
+      </c>
+      <c r="E833" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>683</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C834" s="1"/>
+      <c r="D834">
+        <v>2</v>
+      </c>
+      <c r="E834" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>685</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C835" s="1"/>
+      <c r="D835">
+        <v>1</v>
+      </c>
+      <c r="E835" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>685</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C836" s="1"/>
+      <c r="D836">
+        <v>3</v>
+      </c>
+      <c r="E836" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>687</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C837" s="1"/>
+      <c r="D837">
+        <v>1</v>
+      </c>
+      <c r="E837" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>687</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C838" s="1"/>
+      <c r="D838">
+        <v>2</v>
+      </c>
+      <c r="E838" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>689</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C839" s="1"/>
+      <c r="D839">
+        <v>1</v>
+      </c>
+      <c r="E839" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>689</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C840" s="1"/>
+      <c r="D840">
+        <v>3</v>
+      </c>
+      <c r="E840" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>691</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C841" s="1"/>
+      <c r="D841">
+        <v>1</v>
+      </c>
+      <c r="E841" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>691</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C842" s="1"/>
+      <c r="D842">
+        <v>2</v>
+      </c>
+      <c r="E842" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>693</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C843" s="1"/>
+      <c r="D843">
+        <v>1</v>
+      </c>
+      <c r="E843" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>693</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C844" s="1"/>
+      <c r="D844">
+        <v>3</v>
+      </c>
+      <c r="E844" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>695</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C845" s="1"/>
+      <c r="D845">
+        <v>1</v>
+      </c>
+      <c r="E845" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>695</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C846" s="1"/>
+      <c r="D846">
+        <v>2</v>
+      </c>
+      <c r="E846" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>697</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C847" s="1"/>
+      <c r="D847">
+        <v>1</v>
+      </c>
+      <c r="E847" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>697</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C848" s="1"/>
+      <c r="D848">
+        <v>3</v>
+      </c>
+      <c r="E848" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>699</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C849" s="1"/>
+      <c r="D849">
+        <v>1</v>
+      </c>
+      <c r="E849" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>699</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C850" s="1"/>
+      <c r="D850">
+        <v>2</v>
+      </c>
+      <c r="E850" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>701</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C851" s="1"/>
+      <c r="D851">
+        <v>1</v>
+      </c>
+      <c r="E851" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>701</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C852" s="1"/>
+      <c r="D852">
+        <v>3</v>
+      </c>
+      <c r="E852" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>703</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D853" t="s">
+        <v>273</v>
+      </c>
+      <c r="E853" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>703</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D854">
+        <v>99</v>
+      </c>
+      <c r="E854" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>706</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C855" s="1"/>
+      <c r="D855">
+        <v>1</v>
+      </c>
+      <c r="E855" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>706</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C856" s="1"/>
+      <c r="D856">
+        <v>3</v>
+      </c>
+      <c r="E856" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>706</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C857" s="1"/>
+      <c r="D857">
+        <v>9</v>
+      </c>
+      <c r="E857" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>708</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C858" s="1"/>
+      <c r="D858">
+        <v>1</v>
+      </c>
+      <c r="E858" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>708</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C859" s="1"/>
+      <c r="D859">
+        <v>2</v>
+      </c>
+      <c r="E859" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>708</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C860" s="1"/>
+      <c r="D860">
+        <v>3</v>
+      </c>
+      <c r="E860" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>708</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C861" s="1"/>
+      <c r="D861">
+        <v>4</v>
+      </c>
+      <c r="E861" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>708</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C862" s="1"/>
+      <c r="D862">
+        <v>5</v>
+      </c>
+      <c r="E862" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>708</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C863" s="1"/>
+      <c r="D863">
+        <v>6</v>
+      </c>
+      <c r="E863" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>708</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C864" s="1"/>
+      <c r="D864">
+        <v>7</v>
+      </c>
+      <c r="E864" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>717</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C865" s="1"/>
+      <c r="D865">
+        <v>1</v>
+      </c>
+      <c r="E865" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>717</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C866" s="1"/>
+      <c r="D866">
+        <v>2</v>
+      </c>
+      <c r="E866" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>717</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C867" s="1"/>
+      <c r="D867">
+        <v>3</v>
+      </c>
+      <c r="E867" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>717</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C868" s="1"/>
+      <c r="D868">
+        <v>4</v>
+      </c>
+      <c r="E868" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>717</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C869" s="1"/>
+      <c r="D869">
+        <v>5</v>
+      </c>
+      <c r="E869" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>717</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C870" s="1"/>
+      <c r="D870">
+        <v>6</v>
+      </c>
+      <c r="E870" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>717</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C871" s="1"/>
+      <c r="D871">
+        <v>7</v>
+      </c>
+      <c r="E871" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>719</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C872" s="1"/>
+      <c r="D872">
+        <v>1</v>
+      </c>
+      <c r="E872" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>719</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C873" s="1"/>
+      <c r="D873">
+        <v>3</v>
+      </c>
+      <c r="E873" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>721</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C874" s="1"/>
+      <c r="D874">
+        <v>1</v>
+      </c>
+      <c r="E874" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>721</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C875" s="1"/>
+      <c r="D875">
+        <v>3</v>
+      </c>
+      <c r="E875" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>723</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D876">
+        <v>1</v>
+      </c>
+      <c r="E876" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>723</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D877">
+        <v>2</v>
+      </c>
+      <c r="E877" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>728</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D878">
+        <v>1</v>
+      </c>
+      <c r="E878" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>728</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D879">
+        <v>2</v>
+      </c>
+      <c r="E879" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>728</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D880">
+        <v>3</v>
+      </c>
+      <c r="E880" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>728</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D881">
+        <v>4</v>
+      </c>
+      <c r="E881" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>733</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D882" t="s">
+        <v>241</v>
+      </c>
+      <c r="E882" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>733</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D883">
+        <v>1</v>
+      </c>
+      <c r="E883" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>733</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D884">
+        <v>2</v>
+      </c>
+      <c r="E884" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>733</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D885">
+        <v>3</v>
+      </c>
+      <c r="E885" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>739</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D886">
+        <v>1</v>
+      </c>
+      <c r="E886" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>739</v>
+      </c>
+      <c r="B887" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D887">
+        <v>2</v>
+      </c>
+      <c r="E887" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>739</v>
+      </c>
+      <c r="B888" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D888">
+        <v>3</v>
+      </c>
+      <c r="E888" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>739</v>
+      </c>
+      <c r="B889" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D889">
+        <v>85</v>
+      </c>
+      <c r="E889" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>739</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D890">
+        <v>94</v>
+      </c>
+      <c r="E890" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>739</v>
+      </c>
+      <c r="B891" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D891">
+        <v>97</v>
+      </c>
+      <c r="E891" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>739</v>
+      </c>
+      <c r="B892" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C892" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D892">
+        <v>98</v>
+      </c>
+      <c r="E892" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>743</v>
+      </c>
+      <c r="B893" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C893" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D893">
+        <v>0</v>
+      </c>
+      <c r="E893" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>743</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D894">
+        <v>1</v>
+      </c>
+      <c r="E894" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
+        <v>743</v>
+      </c>
+      <c r="B895" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D895">
+        <v>2</v>
+      </c>
+      <c r="E895" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>743</v>
+      </c>
+      <c r="B896" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D896">
+        <v>3</v>
+      </c>
+      <c r="E896" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>743</v>
+      </c>
+      <c r="B897" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C897" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D897">
+        <v>985</v>
+      </c>
+      <c r="E897" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>743</v>
+      </c>
+      <c r="B898" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D898">
+        <v>994</v>
+      </c>
+      <c r="E898" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>743</v>
+      </c>
+      <c r="B899" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C899" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D899">
+        <v>997</v>
+      </c>
+      <c r="E899" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>743</v>
+      </c>
+      <c r="B900" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C900" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D900">
+        <v>998</v>
+      </c>
+      <c r="E900" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>743</v>
+      </c>
+      <c r="B901" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C901" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D901">
+        <v>999</v>
+      </c>
+      <c r="E901" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>747</v>
+      </c>
+      <c r="B902" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C902" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D902">
+        <v>1</v>
+      </c>
+      <c r="E902" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>747</v>
+      </c>
+      <c r="B903" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C903" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D903">
+        <v>2</v>
+      </c>
+      <c r="E903" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>747</v>
+      </c>
+      <c r="B904" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C904" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D904">
+        <v>3</v>
+      </c>
+      <c r="E904" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>747</v>
+      </c>
+      <c r="B905" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C905" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D905">
+        <v>85</v>
+      </c>
+      <c r="E905" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>747</v>
+      </c>
+      <c r="B906" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C906" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D906">
+        <v>89</v>
+      </c>
+      <c r="E906" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>747</v>
+      </c>
+      <c r="B907" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C907" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D907">
+        <v>97</v>
+      </c>
+      <c r="E907" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>747</v>
+      </c>
+      <c r="B908" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D908">
+        <v>98</v>
+      </c>
+      <c r="E908" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>747</v>
+      </c>
+      <c r="B909" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C909" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D909">
+        <v>99</v>
+      </c>
+      <c r="E909" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
